--- a/src/test/resources/data/QA/ResponcesiveEdQA.xlsx
+++ b/src/test/resources/data/QA/ResponcesiveEdQA.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7575"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Institution" sheetId="4" r:id="rId1"/>
-    <sheet name="CreateUser" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="SchoolYear" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateUser" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>TC_ID</t>
   </si>
@@ -170,6 +170,45 @@
   </si>
   <si>
     <t>Action1</t>
+  </si>
+  <si>
+    <t>Validate if user can create school in school year tab in Insistitute detail page</t>
+  </si>
+  <si>
+    <t>SearchIcon</t>
+  </si>
+  <si>
+    <t>GlobalSchoolYear</t>
+  </si>
+  <si>
+    <t>SchoolYearName</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>ExtendedDate</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>TestYear</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>05/12/2024</t>
+  </si>
+  <si>
+    <t>TC_ADMS_SY_001</t>
   </si>
 </sst>
 </file>
@@ -239,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -303,6 +342,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -311,7 +374,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -343,6 +406,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -642,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -781,10 +852,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="10" customFormat="1">
+      <c r="A2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -901,23 +1095,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/src/test/resources/data/QA/ResponcesiveEdQA.xlsx
+++ b/src/test/resources/data/QA/ResponcesiveEdQA.xlsx
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,7 +855,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/data/QA/ResponcesiveEdQA.xlsx
+++ b/src/test/resources/data/QA/ResponcesiveEdQA.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>TC_ID</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>TC_ADMS_SY_001</t>
+  </si>
+  <si>
+    <t>Action2</t>
+  </si>
+  <si>
+    <t>checkbox</t>
   </si>
 </sst>
 </file>
@@ -713,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -852,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -873,7 +879,7 @@
     <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -919,8 +925,11 @@
       <c r="O1" s="15" t="s">
         <v>57</v>
       </c>
+      <c r="P1" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1">
+    <row r="2" spans="1:16" s="10" customFormat="1">
       <c r="A2" s="10" t="s">
         <v>63</v>
       </c>
@@ -965,6 +974,9 @@
       </c>
       <c r="O2" s="10" t="s">
         <v>58</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
